--- a/ind_ABRIL.xlsx
+++ b/ind_ABRIL.xlsx
@@ -1020,12 +1020,21 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C10711102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10301104</t>
   </si>
   <si>
     <t xml:space="preserve">C25991106</t>
   </si>
   <si>
+    <t xml:space="preserve">C10201201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20112109</t>
   </si>
   <si>
@@ -1038,9 +1047,15 @@
     <t xml:space="preserve">C10301406</t>
   </si>
   <si>
+    <t xml:space="preserve">C25121101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11041101</t>
   </si>
   <si>
+    <t xml:space="preserve">C11041201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11041103</t>
   </si>
   <si>
@@ -1074,15 +1089,15 @@
     <t xml:space="preserve">C25991103</t>
   </si>
   <si>
+    <t xml:space="preserve">C13111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13111102</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11031101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10711102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10711101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C32501101</t>
   </si>
   <si>
@@ -1095,15 +1110,6 @@
     <t xml:space="preserve">C29201101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10201201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25121101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11041201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10612101</t>
   </si>
   <si>
@@ -1111,12 +1117,6 @@
   </si>
   <si>
     <t xml:space="preserve">C23941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111102</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>96.3179303795984</v>
+        <v>96.0982825901173</v>
       </c>
     </row>
     <row r="9">
@@ -1544,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>99.7999845734194</v>
+        <v>99.7848454214487</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>119.473668772041</v>
+        <v>108.189897344968</v>
       </c>
     </row>
     <row r="14">
@@ -1760,7 +1760,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>92.3484996530042</v>
+        <v>101.455123073577</v>
       </c>
     </row>
     <row r="40">
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>96.7594868067171</v>
+        <v>96.6896340962746</v>
       </c>
     </row>
     <row r="43">
@@ -1896,7 +1896,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>100.728532266485</v>
+        <v>100.726833858515</v>
       </c>
     </row>
     <row r="57">
@@ -1904,7 +1904,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>97.4767006788554</v>
+        <v>97.8247735661627</v>
       </c>
     </row>
     <row r="58">
@@ -1928,7 +1928,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>96.1563598395793</v>
+        <v>99.9301529799874</v>
       </c>
     </row>
     <row r="61">
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>102.591336569838</v>
+        <v>103.159409176908</v>
       </c>
     </row>
     <row r="62">
@@ -1944,7 +1944,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>100.03614422159</v>
+        <v>107.092959115881</v>
       </c>
     </row>
     <row r="63">
@@ -1960,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="65">
@@ -2000,7 +2000,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>103.78731271229</v>
+        <v>104.816909631973</v>
       </c>
     </row>
     <row r="70">
@@ -2024,7 +2024,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>98.9764654207656</v>
+        <v>98.9484025271026</v>
       </c>
     </row>
     <row r="73">
@@ -2088,7 +2088,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>100.964844095323</v>
+        <v>100.949625364119</v>
       </c>
     </row>
     <row r="81">
@@ -2284,13 +2284,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.5508881198578</v>
+        <v>66.4785828573545</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.534575802501</v>
+        <v>101.424261960507</v>
       </c>
     </row>
     <row r="7">
@@ -2298,13 +2298,13 @@
         <v>102</v>
       </c>
       <c r="B7" t="n">
-        <v>177.581519641495</v>
+        <v>177.574212651004</v>
       </c>
       <c r="C7" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D7" t="n">
-        <v>100.456116374592</v>
+        <v>100.45198288205</v>
       </c>
     </row>
     <row r="8">
@@ -2312,13 +2312,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>496.009641767338</v>
+        <v>459.882246342172</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>114.053690438694</v>
+        <v>105.746467297836</v>
       </c>
     </row>
     <row r="9">
@@ -2592,13 +2592,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="n">
-        <v>79.7942642429551</v>
+        <v>87.6628957671557</v>
       </c>
       <c r="C28" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D28" t="n">
-        <v>92.3484996530042</v>
+        <v>101.455123073577</v>
       </c>
     </row>
     <row r="29">
@@ -2634,13 +2634,13 @@
         <v>126</v>
       </c>
       <c r="B31" t="n">
-        <v>359.986335096665</v>
+        <v>359.726453383165</v>
       </c>
       <c r="C31" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D31" t="n">
-        <v>96.7594868067171</v>
+        <v>96.6896340962746</v>
       </c>
     </row>
     <row r="32">
@@ -2802,13 +2802,13 @@
         <v>138</v>
       </c>
       <c r="B43" t="n">
-        <v>159.624501098457</v>
+        <v>159.621809631414</v>
       </c>
       <c r="C43" t="n">
         <v>1.58469996044575</v>
       </c>
       <c r="D43" t="n">
-        <v>100.728532266485</v>
+        <v>100.726833858515</v>
       </c>
     </row>
     <row r="44">
@@ -2816,13 +2816,13 @@
         <v>139</v>
       </c>
       <c r="B44" t="n">
-        <v>237.207413048527</v>
+        <v>238.054440785161</v>
       </c>
       <c r="C44" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.4767006788554</v>
+        <v>97.8247735661627</v>
       </c>
     </row>
     <row r="45">
@@ -2858,13 +2858,13 @@
         <v>142</v>
       </c>
       <c r="B47" t="n">
-        <v>238.043506080055</v>
+        <v>247.385862132866</v>
       </c>
       <c r="C47" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D47" t="n">
-        <v>96.1563598395793</v>
+        <v>99.9301529799874</v>
       </c>
     </row>
     <row r="48">
@@ -2872,13 +2872,13 @@
         <v>143</v>
       </c>
       <c r="B48" t="n">
-        <v>147.327218384817</v>
+        <v>148.143004199082</v>
       </c>
       <c r="C48" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D48" t="n">
-        <v>102.591336569838</v>
+        <v>103.159409176908</v>
       </c>
     </row>
     <row r="49">
@@ -2886,13 +2886,13 @@
         <v>144</v>
       </c>
       <c r="B49" t="n">
-        <v>322.884573879689</v>
+        <v>345.661707962786</v>
       </c>
       <c r="C49" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D49" t="n">
-        <v>100.03614422159</v>
+        <v>107.092959115881</v>
       </c>
     </row>
     <row r="50">
@@ -2914,13 +2914,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="52">
@@ -2956,13 +2956,13 @@
         <v>149</v>
       </c>
       <c r="B54" t="n">
-        <v>85.1782587381219</v>
+        <v>85.8839330283381</v>
       </c>
       <c r="C54" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D54" t="n">
-        <v>103.61638933668</v>
+        <v>104.474817568053</v>
       </c>
     </row>
     <row r="55">
@@ -2998,13 +2998,13 @@
         <v>152</v>
       </c>
       <c r="B57" t="n">
-        <v>100.584617970567</v>
+        <v>100.556099115844</v>
       </c>
       <c r="C57" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D57" t="n">
-        <v>98.9764654207656</v>
+        <v>98.9484025271026</v>
       </c>
     </row>
     <row r="58">
@@ -3110,13 +3110,13 @@
         <v>160</v>
       </c>
       <c r="B65" t="n">
-        <v>201.727981987529</v>
+        <v>201.697574928896</v>
       </c>
       <c r="C65" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D65" t="n">
-        <v>100.964844095323</v>
+        <v>100.949625364119</v>
       </c>
     </row>
     <row r="66">
@@ -3348,13 +3348,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5508881198578</v>
+        <v>66.4785828573545</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.534575802501</v>
+        <v>101.424261960507</v>
       </c>
     </row>
     <row r="4">
@@ -3362,13 +3362,13 @@
         <v>177</v>
       </c>
       <c r="B4" t="n">
-        <v>177.581519641495</v>
+        <v>177.574212651004</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>100.456116374592</v>
+        <v>100.45198288205</v>
       </c>
     </row>
     <row r="5">
@@ -3376,13 +3376,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>496.009641767338</v>
+        <v>459.882246342172</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>114.053690438694</v>
+        <v>105.746467297836</v>
       </c>
     </row>
     <row r="6">
@@ -3614,13 +3614,13 @@
         <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>79.7942642429551</v>
+        <v>87.6628957671557</v>
       </c>
       <c r="C22" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D22" t="n">
-        <v>92.3484996530042</v>
+        <v>101.455123073577</v>
       </c>
     </row>
     <row r="23">
@@ -3656,13 +3656,13 @@
         <v>198</v>
       </c>
       <c r="B25" t="n">
-        <v>359.986335096665</v>
+        <v>359.726453383165</v>
       </c>
       <c r="C25" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D25" t="n">
-        <v>96.7594868067171</v>
+        <v>96.6896340962746</v>
       </c>
     </row>
     <row r="26">
@@ -3810,13 +3810,13 @@
         <v>209</v>
       </c>
       <c r="B36" t="n">
-        <v>198.028590961282</v>
+        <v>198.025899494239</v>
       </c>
       <c r="C36" t="n">
         <v>1.968740859074</v>
       </c>
       <c r="D36" t="n">
-        <v>100.586417988208</v>
+        <v>100.58505088749</v>
       </c>
     </row>
     <row r="37">
@@ -3824,13 +3824,13 @@
         <v>210</v>
       </c>
       <c r="B37" t="n">
-        <v>237.207413048527</v>
+        <v>238.054440785161</v>
       </c>
       <c r="C37" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.4767006788554</v>
+        <v>97.8247735661627</v>
       </c>
     </row>
     <row r="38">
@@ -3866,13 +3866,13 @@
         <v>213</v>
       </c>
       <c r="B40" t="n">
-        <v>238.043506080055</v>
+        <v>247.385862132866</v>
       </c>
       <c r="C40" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D40" t="n">
-        <v>96.1563598395793</v>
+        <v>99.9301529799874</v>
       </c>
     </row>
     <row r="41">
@@ -3880,13 +3880,13 @@
         <v>214</v>
       </c>
       <c r="B41" t="n">
-        <v>147.327218384817</v>
+        <v>148.143004199082</v>
       </c>
       <c r="C41" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D41" t="n">
-        <v>102.591336569838</v>
+        <v>103.159409176908</v>
       </c>
     </row>
     <row r="42">
@@ -3894,13 +3894,13 @@
         <v>215</v>
       </c>
       <c r="B42" t="n">
-        <v>322.884573879689</v>
+        <v>345.661707962786</v>
       </c>
       <c r="C42" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D42" t="n">
-        <v>100.03614422159</v>
+        <v>107.092959115881</v>
       </c>
     </row>
     <row r="43">
@@ -3922,13 +3922,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="45">
@@ -3964,13 +3964,13 @@
         <v>220</v>
       </c>
       <c r="B47" t="n">
-        <v>85.1782587381219</v>
+        <v>85.8839330283381</v>
       </c>
       <c r="C47" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D47" t="n">
-        <v>103.61638933668</v>
+        <v>104.474817568053</v>
       </c>
     </row>
     <row r="48">
@@ -4006,13 +4006,13 @@
         <v>223</v>
       </c>
       <c r="B50" t="n">
-        <v>100.584617970567</v>
+        <v>100.556099115844</v>
       </c>
       <c r="C50" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D50" t="n">
-        <v>98.9764654207656</v>
+        <v>98.9484025271026</v>
       </c>
     </row>
     <row r="51">
@@ -4118,13 +4118,13 @@
         <v>231</v>
       </c>
       <c r="B58" t="n">
-        <v>201.727981987529</v>
+        <v>201.697574928896</v>
       </c>
       <c r="C58" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D58" t="n">
-        <v>100.964844095323</v>
+        <v>100.949625364119</v>
       </c>
     </row>
     <row r="59">
@@ -4356,13 +4356,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5508881198578</v>
+        <v>66.4785828573545</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.534575802501</v>
+        <v>101.424261960507</v>
       </c>
     </row>
     <row r="4">
@@ -4370,13 +4370,13 @@
         <v>248</v>
       </c>
       <c r="B4" t="n">
-        <v>177.581519641495</v>
+        <v>177.574212651004</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>100.456116374592</v>
+        <v>100.45198288205</v>
       </c>
     </row>
     <row r="5">
@@ -4384,13 +4384,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>496.009641767338</v>
+        <v>459.882246342172</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>114.053690438694</v>
+        <v>105.746467297836</v>
       </c>
     </row>
     <row r="6">
@@ -4482,13 +4482,13 @@
         <v>256</v>
       </c>
       <c r="B12" t="n">
-        <v>118.258121334133</v>
+        <v>126.126752858334</v>
       </c>
       <c r="C12" t="n">
         <v>1.24869445208775</v>
       </c>
       <c r="D12" t="n">
-        <v>94.7054110286245</v>
+        <v>101.006897762264</v>
       </c>
     </row>
     <row r="13">
@@ -4510,13 +4510,13 @@
         <v>258</v>
       </c>
       <c r="B14" t="n">
-        <v>359.986335096665</v>
+        <v>359.726453383165</v>
       </c>
       <c r="C14" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D14" t="n">
-        <v>96.7594868067171</v>
+        <v>96.6896340962746</v>
       </c>
     </row>
     <row r="15">
@@ -4608,13 +4608,13 @@
         <v>265</v>
       </c>
       <c r="B21" t="n">
-        <v>435.236004009809</v>
+        <v>436.0803402794</v>
       </c>
       <c r="C21" t="n">
         <v>4.40221892507898</v>
       </c>
       <c r="D21" t="n">
-        <v>98.8674146872422</v>
+        <v>99.0592125700736</v>
       </c>
     </row>
     <row r="22">
@@ -4622,13 +4622,13 @@
         <v>266</v>
       </c>
       <c r="B22" t="n">
-        <v>490.416138970323</v>
+        <v>500.5742808374</v>
       </c>
       <c r="C22" t="n">
         <v>4.98260867915758</v>
       </c>
       <c r="D22" t="n">
-        <v>98.4255779551283</v>
+        <v>100.464297533804</v>
       </c>
     </row>
     <row r="23">
@@ -4636,13 +4636,13 @@
         <v>267</v>
       </c>
       <c r="B23" t="n">
-        <v>322.884573879689</v>
+        <v>345.661707962786</v>
       </c>
       <c r="C23" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D23" t="n">
-        <v>100.03614422159</v>
+        <v>107.092959115881</v>
       </c>
     </row>
     <row r="24">
@@ -4650,13 +4650,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>84.4684190683364</v>
+        <v>83.2677393734552</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>96.0899798044125</v>
+        <v>94.7241049732598</v>
       </c>
     </row>
     <row r="25">
@@ -4692,13 +4692,13 @@
         <v>271</v>
       </c>
       <c r="B27" t="n">
-        <v>433.587334157716</v>
+        <v>434.26448959321</v>
       </c>
       <c r="C27" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D27" t="n">
-        <v>100.453953360366</v>
+        <v>100.610837418492</v>
       </c>
     </row>
     <row r="28">
@@ -4762,13 +4762,13 @@
         <v>276</v>
       </c>
       <c r="B32" t="n">
-        <v>201.727981987529</v>
+        <v>201.697574928896</v>
       </c>
       <c r="C32" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D32" t="n">
-        <v>100.964844095323</v>
+        <v>100.949625364119</v>
       </c>
     </row>
     <row r="33">
@@ -4972,13 +4972,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3393.4041734132</v>
+        <v>3357.19716573504</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>101.481965824271</v>
+        <v>100.399171636481</v>
       </c>
     </row>
     <row r="3">
@@ -5014,13 +5014,13 @@
         <v>293</v>
       </c>
       <c r="B5" t="n">
-        <v>206.083277011707</v>
+        <v>213.951908535907</v>
       </c>
       <c r="C5" t="n">
         <v>2.12634831254182</v>
       </c>
       <c r="D5" t="n">
-        <v>96.9188706272473</v>
+        <v>100.619408059327</v>
       </c>
     </row>
     <row r="6">
@@ -5028,13 +5028,13 @@
         <v>294</v>
       </c>
       <c r="B6" t="n">
-        <v>359.986335096665</v>
+        <v>359.726453383165</v>
       </c>
       <c r="C6" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D6" t="n">
-        <v>96.7594868067171</v>
+        <v>96.6896340962746</v>
       </c>
     </row>
     <row r="7">
@@ -5098,13 +5098,13 @@
         <v>299</v>
       </c>
       <c r="B11" t="n">
-        <v>925.652142980132</v>
+        <v>936.654621116799</v>
       </c>
       <c r="C11" t="n">
         <v>9.38482760423656</v>
       </c>
       <c r="D11" t="n">
-        <v>98.632833975796</v>
+        <v>99.8052026756431</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>322.884573879689</v>
+        <v>345.661707962786</v>
       </c>
       <c r="C12" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D12" t="n">
-        <v>100.03614422159</v>
+        <v>107.092959115881</v>
       </c>
     </row>
     <row r="13">
@@ -5126,13 +5126,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>559.214002171157</v>
+        <v>558.013322476276</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>99.339451231165</v>
+        <v>99.1261610389831</v>
       </c>
     </row>
     <row r="14">
@@ -5140,13 +5140,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="n">
-        <v>484.539625551639</v>
+        <v>485.216780987133</v>
       </c>
       <c r="C14" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D14" t="n">
-        <v>100.410065767643</v>
+        <v>100.550391178047</v>
       </c>
     </row>
     <row r="15">
@@ -5168,13 +5168,13 @@
         <v>304</v>
       </c>
       <c r="B16" t="n">
-        <v>278.615979539432</v>
+        <v>278.5855724808</v>
       </c>
       <c r="C16" t="n">
         <v>2.80965645935818</v>
       </c>
       <c r="D16" t="n">
-        <v>99.1637175468342</v>
+        <v>99.1528952064262</v>
       </c>
     </row>
     <row r="17">
@@ -5274,7 +5274,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.9887215896138</v>
+        <v>100.037242899493</v>
       </c>
     </row>
   </sheetData>
@@ -5486,6 +5486,41 @@
         <v>350</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5507,81 +5542,46 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>366</v>
       </c>
     </row>

--- a/ind_ABRIL.xlsx
+++ b/ind_ABRIL.xlsx
@@ -1020,103 +1020,103 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C10301104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20112109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10501201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10613102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11031101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10711102</t>
   </si>
   <si>
     <t xml:space="preserve">C10711101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10301104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991106</t>
+    <t xml:space="preserve">C32501101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10401301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30201101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29201101</t>
   </si>
   <si>
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
-    <t xml:space="preserve">C20112109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301406</t>
-  </si>
-  <si>
     <t xml:space="preserve">C25121101</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C11041201</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10501201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10613102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991103</t>
+    <t xml:space="preserve">C10612101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13991101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23941101</t>
   </si>
   <si>
     <t xml:space="preserve">C13111101</t>
   </si>
   <si>
     <t xml:space="preserve">C13111102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11031101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32501101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10401301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10612101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13991101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23941101</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>96.0982825901173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1568,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>99.2440317930441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1744,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1960,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2112,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2128,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2284,13 +2284,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.4785828573545</v>
+        <v>34.8442487936721</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.424261960507</v>
+        <v>53.1607634454187</v>
       </c>
     </row>
     <row r="7">
@@ -2312,13 +2312,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>459.882246342172</v>
+        <v>369.847947884344</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>105.746467297836</v>
+        <v>85.0437568251416</v>
       </c>
     </row>
     <row r="9">
@@ -2396,13 +2396,13 @@
         <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>310.48921384565</v>
+        <v>71.5805335740662</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>99.7800717583912</v>
+        <v>23.0034102893984</v>
       </c>
     </row>
     <row r="15">
@@ -2564,13 +2564,13 @@
         <v>121</v>
       </c>
       <c r="B26" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D26" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2914,13 +2914,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3152,13 +3152,13 @@
         <v>163</v>
       </c>
       <c r="B68" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3180,13 +3180,13 @@
         <v>165</v>
       </c>
       <c r="B70" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3348,13 +3348,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.4785828573545</v>
+        <v>34.8442487936721</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.424261960507</v>
+        <v>53.1607634454187</v>
       </c>
     </row>
     <row r="4">
@@ -3376,13 +3376,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>459.882246342172</v>
+        <v>369.847947884344</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>105.746467297836</v>
+        <v>85.0437568251416</v>
       </c>
     </row>
     <row r="6">
@@ -3432,13 +3432,13 @@
         <v>182</v>
       </c>
       <c r="B9" t="n">
-        <v>548.204010286817</v>
+        <v>309.295330015233</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>101.034541155666</v>
+        <v>57.0034351505925</v>
       </c>
     </row>
     <row r="10">
@@ -3586,13 +3586,13 @@
         <v>193</v>
       </c>
       <c r="B20" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D20" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3922,13 +3922,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4160,13 +4160,13 @@
         <v>234</v>
       </c>
       <c r="B61" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4188,13 +4188,13 @@
         <v>236</v>
       </c>
       <c r="B63" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4356,13 +4356,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.4785828573545</v>
+        <v>34.8442487936721</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.424261960507</v>
+        <v>53.1607634454187</v>
       </c>
     </row>
     <row r="4">
@@ -4384,13 +4384,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>459.882246342172</v>
+        <v>369.847947884344</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>105.746467297836</v>
+        <v>85.0437568251416</v>
       </c>
     </row>
     <row r="6">
@@ -4426,13 +4426,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1294.15232419978</v>
+        <v>1055.2436439282</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>100.929134576567</v>
+        <v>82.2969798512332</v>
       </c>
     </row>
     <row r="9">
@@ -4468,13 +4468,13 @@
         <v>255</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D11" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4650,13 +4650,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>83.2677393734552</v>
+        <v>15.5808244154576</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>94.7241049732598</v>
+        <v>17.7245072173802</v>
       </c>
     </row>
     <row r="25">
@@ -4804,13 +4804,13 @@
         <v>279</v>
       </c>
       <c r="B35" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4832,13 +4832,13 @@
         <v>281</v>
       </c>
       <c r="B37" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4972,13 +4972,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3357.19716573504</v>
+        <v>2996.61985294195</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>100.399171636481</v>
+        <v>89.6158718396071</v>
       </c>
     </row>
     <row r="3">
@@ -5000,13 +5000,13 @@
         <v>292</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D4" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5126,13 +5126,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>558.013322476276</v>
+        <v>490.326407518279</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>99.1261610389831</v>
+        <v>87.1021756570863</v>
       </c>
     </row>
     <row r="14">
@@ -5196,13 +5196,13 @@
         <v>306</v>
       </c>
       <c r="B18" t="n">
-        <v>114.498142256289</v>
+        <v>65.7727233866718</v>
       </c>
       <c r="C18" t="n">
         <v>1.16952660241937</v>
       </c>
       <c r="D18" t="n">
-        <v>97.9012722065744</v>
+        <v>56.2387578449345</v>
       </c>
     </row>
     <row r="19">
@@ -5210,13 +5210,13 @@
         <v>307</v>
       </c>
       <c r="B19" t="n">
-        <v>311.337968834497</v>
+        <v>248.893660626601</v>
       </c>
       <c r="C19" t="n">
         <v>3.11325050744984</v>
       </c>
       <c r="D19" t="n">
-        <v>100.004149389676</v>
+        <v>79.9465574745791</v>
       </c>
     </row>
     <row r="20">
@@ -5274,7 +5274,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>100.037242899493</v>
+        <v>94.1841877994613</v>
       </c>
     </row>
   </sheetData>
@@ -5486,41 +5486,6 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>357</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5542,46 +5507,81 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>366</v>
       </c>
     </row>
